--- a/data/trans_bre/BARTHEL_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.98199615404772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11.95211528131829</v>
+        <v>11.95211528131828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3021573099455901</v>
@@ -649,7 +649,7 @@
         <v>0.8121463046896279</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4645482923894994</v>
+        <v>0.464548292389499</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.582140857797126</v>
+        <v>-3.89417249047178</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.279223943251465</v>
+        <v>1.818695214847876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.520610067738897</v>
+        <v>3.958203241431564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.03310831835256604</v>
+        <v>-0.2268831644014072</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1508494006644697</v>
+        <v>-0.2142184286440844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07611301128008502</v>
+        <v>0.06915416564251439</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2090499739627119</v>
+        <v>0.2154869076765732</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.00230853860168795</v>
+        <v>-0.02246229082715781</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.71095303036601</v>
+        <v>11.46695197710588</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.17293711261401</v>
+        <v>20.38346571278334</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.0311708855306</v>
+        <v>19.56905844427394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.22873213052258</v>
+        <v>22.38836006878732</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.258199479873491</v>
+        <v>1.224459753548616</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.479332514599031</v>
+        <v>1.406781417053279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.868174888815864</v>
+        <v>1.839766234292161</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.200572594081271</v>
+        <v>1.220784708337244</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.130503533047294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.254324827860536</v>
+        <v>9.254324827860533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.432574295856089</v>
@@ -749,7 +749,7 @@
         <v>0.6388846825141264</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6104119655866062</v>
+        <v>0.6104119655866059</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.782815460734965</v>
+        <v>-2.242866119494078</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.555398492212291</v>
+        <v>4.358634176064744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.09342436315985334</v>
+        <v>-0.1906913264618816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.485425199617805</v>
+        <v>3.441067254847517</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3049328183088748</v>
+        <v>-0.2748686724919742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1276200292438724</v>
+        <v>0.1927910795153686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01759523589778105</v>
+        <v>-0.04776597592943383</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1859398102500716</v>
+        <v>0.1724792038292997</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.764084452750479</v>
+        <v>9.082702574728838</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>20.83466324486441</v>
+        <v>21.53378955397475</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.71355067731872</v>
+        <v>14.77257159978363</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.74891381223637</v>
+        <v>14.6097454043973</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.825022466984537</v>
+        <v>2.026480828043097</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.823321623246035</v>
+        <v>1.963364211472036</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.817377617866973</v>
+        <v>1.836658358200997</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.248052304221426</v>
+        <v>1.190004006995574</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>13.70713013513137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.509196002211711</v>
+        <v>9.509196002211713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.078889619841122</v>
@@ -849,7 +849,7 @@
         <v>1.724626223514608</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.984192347407547</v>
+        <v>0.9841923474075467</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04958740673746995</v>
+        <v>-0.6452486515288151</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.538770168618809</v>
+        <v>-0.07219577193247911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.486267680485494</v>
+        <v>5.821228077619931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.470534696940419</v>
+        <v>4.243942713044045</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1321862690169206</v>
+        <v>-0.2440625371658152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.006050464226592684</v>
+        <v>-0.01521719075778187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.457033865659392</v>
+        <v>0.4753963204561343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3464255592765743</v>
+        <v>0.3219218837546189</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.5448759278019</v>
+        <v>11.71014166300949</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.56912823285898</v>
+        <v>15.84971498143728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.8550024993465</v>
+        <v>22.08470994667181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.47838669298262</v>
+        <v>14.66466092802707</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.076957525820584</v>
+        <v>4.531971093253657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.446144977653963</v>
+        <v>2.430549598800496</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.391401035631183</v>
+        <v>4.610003916775193</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.9683828178729</v>
+        <v>1.888456058905757</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.395702997633345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.332605051540749</v>
+        <v>5.332605051540752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>7.759612703988585</v>
@@ -949,7 +949,7 @@
         <v>0.1679542842880648</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5462759364860185</v>
+        <v>0.5462759364860188</v>
       </c>
     </row>
     <row r="14">
@@ -960,26 +960,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.530546722686467</v>
+        <v>1.978128167494141</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.59600729652135</v>
+        <v>-6.817584756925816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.050432158179156</v>
+        <v>-8.515536104467534</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3028466827737311</v>
+        <v>0.383035741121482</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.3550228144745449</v>
+        <v>-0.3526955027085211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4285974188484964</v>
+        <v>-0.4790701361141423</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01318366974745538</v>
+        <v>0.006514227874593085</v>
       </c>
     </row>
     <row r="15">
@@ -990,26 +990,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.53065160972083</v>
+        <v>27.65204261753362</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.5061097120132</v>
+        <v>18.86193346797949</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.17290956732665</v>
+        <v>12.37727441671012</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.67506889402579</v>
+        <v>10.63275971323132</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>2.77961933676085</v>
+        <v>2.725322559662523</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.548471405097453</v>
+        <v>1.181115191818637</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.504936790414503</v>
+        <v>1.531789132157898</v>
       </c>
     </row>
     <row r="16">
@@ -1045,7 +1045,7 @@
         <v>0.8404980423848769</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8010616340520986</v>
+        <v>0.8010616340520984</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.495650329497332</v>
+        <v>2.412221625920486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.856812734037639</v>
+        <v>6.179939552657982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.61311563488793</v>
+        <v>5.84306431360156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.308375932121129</v>
+        <v>6.986082197907176</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2728061023235713</v>
+        <v>0.227702119109202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3234063015076024</v>
+        <v>0.3302559831172168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4071283831423222</v>
+        <v>0.4252762912659128</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.509928633679682</v>
+        <v>0.4708750999580285</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.355216758793606</v>
+        <v>9.771847513882788</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.25035337790566</v>
+        <v>15.20698209508232</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.13176874126007</v>
+        <v>14.43115662878671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.11504483225263</v>
+        <v>13.05659073182072</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.665546252620806</v>
+        <v>1.607119427687141</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.186577084443295</v>
+        <v>1.181585818014917</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.418538328487529</v>
+        <v>1.446264311614236</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.191828404848919</v>
+        <v>1.149884262049526</v>
       </c>
     </row>
     <row r="19">
